--- a/SuggestedLists/eInjury.01 - Cause of Injury.xlsx
+++ b/SuggestedLists/eInjury.01 - Cause of Injury.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\cmann\DAILY FILES\GRANTS\NEMSIS\V3\V3_5_0\Suggested Lists\Refined Suggested Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3 Suggested Lists\Final Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{648B9CD3-C504-4DD7-B95F-EF0AC75EF48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Injury Cause" sheetId="1" r:id="rId1"/>
+    <sheet name="Recommendation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="262">
   <si>
     <t xml:space="preserve">Count of Events </t>
   </si>
@@ -782,34 +783,44 @@
     <t xml:space="preserve">MVC, Traffic Related </t>
   </si>
   <si>
-    <t>Revised Draft Suggested List (eInjury.01: Cause of Injury)</t>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>W19.XXXA is rolled up into W19.</t>
+  </si>
+  <si>
+    <t>V49.60XA is rolled into V49.6</t>
+  </si>
+  <si>
+    <t>V87.7XXA is rolled into V87</t>
+  </si>
+  <si>
+    <t>Abuse/Neglect NOS, suspected</t>
+  </si>
+  <si>
+    <t>T76</t>
+  </si>
+  <si>
+    <t>Adult and child abuse, neglect and other maltreatment, suspected</t>
+  </si>
+  <si>
+    <t>Added by request Jira NEMPUB-284</t>
   </si>
   <si>
     <t>Record Date Range Evaluated: 01/01/2017 through 06/19/2019</t>
   </si>
   <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>W19.XXXA is rolled up into W19.</t>
-  </si>
-  <si>
-    <t>V49.60XA is rolled into V49.6</t>
-  </si>
-  <si>
-    <t>V87.7XXA is rolled into V87</t>
+    <t>eInjury.01: Cause of Injury Suggested List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,13 +874,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,11 +952,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,6 +972,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +1066,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,19 +1087,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,50 +1099,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1375,59 +1378,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="90.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="54.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="94.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="36"/>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+    <row r="2" spans="1:7" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="1" t="s">
-        <v>253</v>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="12">
         <v>37063795</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1435,1751 +1438,1865 @@
       <c r="D4" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="12">
         <v>32232816</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="13">
         <v>4830979</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="G6" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="14">
         <v>15078</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="32">
         <f>E7/$E$5</f>
         <v>3.1211065086393461E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="11" t="s">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="51"/>
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="15">
         <v>5476</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="32">
         <f>E8/$E$5</f>
         <v>1.1335176576010783E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="52"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="17">
         <v>66</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="32">
         <f>E10/$E$5</f>
         <v>1.3661827136901237E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="B11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15">
+        <v>4017</v>
+      </c>
+      <c r="F11" s="32">
+        <f>E11/$E$5</f>
+        <v>8.315084789232162E-4</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E12" s="15">
         <v>41</v>
       </c>
-      <c r="F11" s="9">
-        <f>E11/$E$5</f>
+      <c r="F12" s="32">
+        <f>E12/$E$5</f>
         <v>8.4868926153477384E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="41">
-        <v>4017</v>
-      </c>
-      <c r="F12" s="9">
-        <f>E12/$E$5</f>
-        <v>8.315084789232162E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="52"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="17">
+        <v>13670</v>
+      </c>
+      <c r="F14" s="32">
+        <f>E14/$E$5</f>
+        <v>2.8296541963854531E-3</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E15" s="17">
         <v>29148</v>
       </c>
-      <c r="F14" s="9">
-        <f>E14/$E$5</f>
+      <c r="F15" s="32">
+        <f>E15/$E$5</f>
         <v>6.0335596573696552E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="43">
-        <v>13670</v>
-      </c>
-      <c r="F15" s="9">
-        <f>E15/$E$5</f>
-        <v>2.8296541963854531E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="52"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="17">
         <v>260</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="32">
         <f>E17/$E$5</f>
         <v>5.381931902415639E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="10" t="s">
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
+      <c r="B18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="17">
+        <v>666</v>
+      </c>
+      <c r="F18" s="32">
+        <f>E18/$E$5</f>
+        <v>1.378602556541852E-4</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="17">
+        <v>515</v>
+      </c>
+      <c r="F19" s="32">
+        <f>E19/$E$5</f>
+        <v>1.0660365114400208E-4</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
+      <c r="B20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E20" s="17">
         <v>706</v>
       </c>
-      <c r="F18" s="9">
-        <f>E18/$E$5</f>
+      <c r="F20" s="32">
+        <f>E20/$E$5</f>
         <v>1.4614015088867081E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="43">
-        <v>666</v>
-      </c>
-      <c r="F19" s="9">
-        <f>E19/$E$5</f>
-        <v>1.378602556541852E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="43">
-        <v>515</v>
-      </c>
-      <c r="F20" s="9">
-        <f>E20/$E$5</f>
-        <v>1.0660365114400208E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="52"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="43">
-        <v>1183</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="B22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1870</v>
+      </c>
+      <c r="F22" s="32">
         <f>E22/$E$5</f>
-        <v>2.4487790155991159E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="10" t="s">
+        <v>3.8708510221220171E-4</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="50"/>
+      <c r="B23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="17">
         <v>1115</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="32">
         <f>E23/$E$5</f>
         <v>2.3080207966128603E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="43">
-        <v>1870</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="50"/>
+      <c r="B24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1183</v>
+      </c>
+      <c r="F24" s="32">
         <f>E24/$E$5</f>
-        <v>3.8708510221220171E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+        <v>2.4487790155991159E-4</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="52"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="14">
+        <v>114109</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" ref="F26:F42" si="0">E26/$E$5</f>
+        <v>2.3620264132797927E-2</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
+      <c r="B27" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="14">
+        <v>94138</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.9486319439600129E-2</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="51"/>
+      <c r="B28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="14">
+        <v>14114</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="0"/>
+        <v>2.9215610334882435E-3</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="14">
+        <v>28999</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="0"/>
+        <v>6.0027170476211963E-3</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
+      <c r="B30" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C30" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D30" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E30" s="14">
         <v>22977</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" ref="F26:F42" si="0">E26/$E$5</f>
+      <c r="F30" s="32">
+        <f t="shared" si="0"/>
         <v>4.7561788200693898E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="8" t="s">
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
+      <c r="B31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="14">
+        <v>20129</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1666502793740153E-3</v>
+      </c>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="14">
+        <v>40368</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" si="0"/>
+        <v>8.3560702706428659E-3</v>
+      </c>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
+      <c r="B33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="14">
+        <v>195502</v>
+      </c>
+      <c r="F33" s="32">
+        <f t="shared" si="0"/>
+        <v>4.0468401953310085E-2</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10762</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" si="0"/>
+        <v>2.22770581283835E-3</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
+      <c r="B35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C35" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D35" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E35" s="14">
         <v>998872</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F35" s="32">
         <f t="shared" si="0"/>
         <v>0.20676388781652746</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="8" t="s">
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="51"/>
+      <c r="B36" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="14">
+        <v>40321</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="0"/>
+        <v>8.3463413937423445E-3</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
+      <c r="B37" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="14">
+        <v>15131</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="0"/>
+        <v>3.1320773698250396E-3</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="51"/>
+      <c r="B38" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="14">
+        <v>30974</v>
+      </c>
+      <c r="F38" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4115368748239232E-3</v>
+      </c>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="14">
+        <v>93027</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="0"/>
+        <v>1.9256345349462294E-2</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="51"/>
+      <c r="B40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="14">
+        <v>26136</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" si="0"/>
+        <v>5.4100835462128896E-3</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="51"/>
+      <c r="B41" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="14">
+        <f>361525+116769</f>
+        <v>478294</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" si="0"/>
+        <v>9.9005605282076373E-2</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C42" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E42" s="14">
         <v>23075</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F42" s="32">
         <f t="shared" si="0"/>
         <v>4.7764645633938795E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="40">
-        <v>114109</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>2.3620264132797927E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="40">
-        <v>94138</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9486319439600129E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="40">
-        <v>28999</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="0"/>
-        <v>6.0027170476211963E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="40">
-        <v>10762</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="0"/>
-        <v>2.22770581283835E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="40">
-        <v>93027</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9256345349462294E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="40">
-        <v>20129</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="0"/>
-        <v>4.1666502793740153E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="40">
-        <v>40368</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="0"/>
-        <v>8.3560702706428659E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="40">
-        <v>195502</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="0"/>
-        <v>4.0468401953310085E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="40">
-        <v>26136</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="0"/>
-        <v>5.4100835462128896E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="40">
-        <v>15131</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="0"/>
-        <v>3.1320773698250396E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="40">
-        <v>40321</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="0"/>
-        <v>8.3463413937423445E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="40">
-        <v>30974</v>
-      </c>
-      <c r="F40" s="9">
-        <f t="shared" si="0"/>
-        <v>6.4115368748239232E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="40">
-        <f>361525+116769</f>
-        <v>478294</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="0"/>
-        <v>9.9005605282076373E-2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="40">
-        <v>14114</v>
-      </c>
-      <c r="F42" s="9">
-        <f t="shared" si="0"/>
-        <v>2.9215610334882435E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="52"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="40">
-        <v>20065</v>
-      </c>
-      <c r="F44" s="9">
-        <f t="shared" ref="F44:F54" si="1">E44/$E$5</f>
-        <v>4.1534024469988377E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="8" t="s">
+      <c r="B44" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="51"/>
+      <c r="B45" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="14">
+        <v>71015</v>
+      </c>
+      <c r="F45" s="32">
+        <f t="shared" ref="F45:F55" si="1">E45/$E$5</f>
+        <v>1.4699919001924869E-2</v>
+      </c>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
+      <c r="B46" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="14">
+        <v>149090</v>
+      </c>
+      <c r="F46" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0861239512736446E-2</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="51"/>
+      <c r="B47" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="14">
+        <v>18491</v>
+      </c>
+      <c r="F47" s="32">
+        <f t="shared" si="1"/>
+        <v>3.8275885695218297E-3</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
+      <c r="B48" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="14">
+        <v>26217</v>
+      </c>
+      <c r="F48" s="32">
+        <f t="shared" si="1"/>
+        <v>5.4268503340627232E-3</v>
+      </c>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="51"/>
+      <c r="B49" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="14">
+        <v>23128</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" si="1"/>
+        <v>4.7874354245795725E-3</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
+      <c r="B50" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="14">
+        <v>93576</v>
+      </c>
+      <c r="F50" s="32">
+        <f t="shared" si="1"/>
+        <v>1.9369986911555608E-2</v>
+      </c>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="51"/>
+      <c r="B51" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C51" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D51" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E51" s="14">
         <v>6037</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F51" s="32">
         <f t="shared" si="1"/>
         <v>1.2496431882647388E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="10" t="s">
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="51"/>
+      <c r="B52" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="14">
+        <v>18773</v>
+      </c>
+      <c r="F52" s="32">
+        <f t="shared" si="1"/>
+        <v>3.8859618309249533E-3</v>
+      </c>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
+      <c r="B53" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C53" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D53" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E53" s="14">
         <v>24178</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F53" s="32">
         <f t="shared" si="1"/>
         <v>5.0047826744848197E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="40">
-        <v>18773</v>
-      </c>
-      <c r="F47" s="9">
-        <f t="shared" si="1"/>
-        <v>3.8859618309249533E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="40">
-        <v>18491</v>
-      </c>
-      <c r="F48" s="9">
-        <f t="shared" si="1"/>
-        <v>3.8275885695218297E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="40">
-        <v>26217</v>
-      </c>
-      <c r="F49" s="9">
-        <f t="shared" si="1"/>
-        <v>5.4268503340627232E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="40">
-        <v>71015</v>
-      </c>
-      <c r="F50" s="9">
-        <f t="shared" si="1"/>
-        <v>1.4699919001924869E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="40">
-        <v>149090</v>
-      </c>
-      <c r="F51" s="9">
-        <f t="shared" si="1"/>
-        <v>3.0861239512736446E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="40">
-        <v>23128</v>
-      </c>
-      <c r="F52" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7874354245795725E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="40">
-        <v>93576</v>
-      </c>
-      <c r="F53" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9369986911555608E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="10" t="s">
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="51"/>
+      <c r="B54" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="14">
         <v>20702</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="32">
         <f t="shared" si="1"/>
         <v>4.2852597786080214E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="51"/>
+      <c r="B55" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="14">
+        <v>20065</v>
+      </c>
+      <c r="F55" s="32">
+        <f t="shared" si="1"/>
+        <v>4.1534024469988377E-3</v>
+      </c>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="52"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D57" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E57" s="14">
         <v>6022</v>
       </c>
-      <c r="F56" s="9">
-        <f>E56/$E$5</f>
+      <c r="F57" s="32">
+        <f>E57/$E$5</f>
         <v>1.2465382275518068E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="52"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D59" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E59" s="14">
         <v>14893</v>
       </c>
-      <c r="F58" s="9">
-        <f>E58/$E$5</f>
+      <c r="F59" s="32">
+        <f>E59/$E$5</f>
         <v>3.0828119931798504E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="40">
-        <v>30561</v>
-      </c>
-      <c r="F59" s="9">
-        <f>E59/$E$5</f>
-        <v>6.3260469565278588E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="8" t="s">
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="51"/>
+      <c r="B60" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="40">
+      <c r="E60" s="14">
         <v>18357</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="32">
         <f>E60/$E$5</f>
         <v>3.7998509204863031E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="8" t="s">
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="51"/>
+      <c r="B61" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="14">
         <v>32769</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="32">
         <f>E61/$E$5</f>
         <v>6.7830971734714638E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="51"/>
+      <c r="B62" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="14">
+        <v>30561</v>
+      </c>
+      <c r="F62" s="32">
+        <f>E62/$E$5</f>
+        <v>6.3260469565278588E-3</v>
+      </c>
+      <c r="G62" s="26"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="52"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B64" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="14">
+        <v>10033</v>
+      </c>
+      <c r="F64" s="32">
+        <f>E64/$E$5</f>
+        <v>2.0768047221898503E-3</v>
+      </c>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="50"/>
+      <c r="B65" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="14">
+        <v>28558</v>
+      </c>
+      <c r="F65" s="32">
+        <f>E65/$E$5</f>
+        <v>5.911431202660993E-3</v>
+      </c>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="50"/>
+      <c r="B66" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C66" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D66" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E66" s="18">
         <v>6586</v>
       </c>
-      <c r="F63" s="9">
-        <f>E63/$E$5</f>
+      <c r="F66" s="32">
+        <f>E66/$E$5</f>
         <v>1.3632847503580537E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="40">
-        <v>28558</v>
-      </c>
-      <c r="F64" s="9">
-        <f>E64/$E$5</f>
-        <v>5.911431202660993E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="40">
-        <v>10033</v>
-      </c>
-      <c r="F65" s="9">
-        <f>E65/$E$5</f>
-        <v>2.0768047221898503E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="8" t="s">
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="50"/>
+      <c r="B67" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D67" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E67" s="14">
         <v>11026</v>
       </c>
-      <c r="F66" s="9">
-        <f>E66/$E$5</f>
+      <c r="F67" s="32">
+        <f>E67/$E$5</f>
         <v>2.2823531213859551E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="G67" s="26"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="52"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="26"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="40">
-        <v>30467</v>
-      </c>
-      <c r="F68" s="9">
-        <f t="shared" ref="F68:F81" si="2">E68/$E$5</f>
-        <v>6.3065892027268176E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="18">
+        <v>1435</v>
+      </c>
+      <c r="F69" s="32">
+        <f t="shared" ref="F69:F82" si="2">E69/$E$5</f>
+        <v>2.9704124153717086E-4</v>
+      </c>
+      <c r="G69" s="26"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="51"/>
+      <c r="B70" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="14">
+        <v>9094</v>
+      </c>
+      <c r="F70" s="32">
+        <f t="shared" si="2"/>
+        <v>1.8824341815603008E-3</v>
+      </c>
+      <c r="G70" s="26"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="51"/>
+      <c r="B71" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="14">
+        <v>693651</v>
+      </c>
+      <c r="F71" s="32">
+        <f t="shared" si="2"/>
+        <v>0.14358394023240423</v>
+      </c>
+      <c r="G71" s="26"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="51"/>
+      <c r="B72" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="14">
+        <v>17839</v>
+      </c>
+      <c r="F72" s="32">
+        <f t="shared" si="2"/>
+        <v>3.6926262771997146E-3</v>
+      </c>
+      <c r="G72" s="26"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="51"/>
+      <c r="B73" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="14">
+        <v>64178</v>
+      </c>
+      <c r="F73" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3284677908970418E-2</v>
+      </c>
+      <c r="G73" s="26"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="51"/>
+      <c r="B74" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="14">
+        <v>9752</v>
+      </c>
+      <c r="F74" s="32">
+        <f t="shared" si="2"/>
+        <v>2.0186384581675886E-3</v>
+      </c>
+      <c r="G74" s="26"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="51"/>
+      <c r="B75" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="19">
+        <v>19467</v>
+      </c>
+      <c r="F75" s="32">
+        <f t="shared" si="2"/>
+        <v>4.0296180132432784E-3</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="51"/>
+      <c r="B76" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="14">
+        <v>47737</v>
+      </c>
+      <c r="F76" s="32">
+        <f t="shared" si="2"/>
+        <v>9.8814339702159755E-3</v>
+      </c>
+      <c r="G76" s="26"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="51"/>
+      <c r="B77" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="14">
+        <v>10679</v>
+      </c>
+      <c r="F77" s="32">
+        <f t="shared" si="2"/>
+        <v>2.2105250302267925E-3</v>
+      </c>
+      <c r="G77" s="26"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="51"/>
+      <c r="B78" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C78" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D78" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E78" s="14">
         <v>54447</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F78" s="32">
         <f t="shared" si="2"/>
         <v>1.1270386395800934E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" s="40">
-        <v>9752</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="G78" s="26"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="51"/>
+      <c r="B79" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="14">
+        <v>30467</v>
+      </c>
+      <c r="F79" s="32">
         <f t="shared" si="2"/>
-        <v>2.0186384581675886E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="40">
-        <v>64178</v>
-      </c>
-      <c r="F71" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3284677908970418E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="40">
-        <v>17839</v>
-      </c>
-      <c r="F72" s="9">
-        <f t="shared" si="2"/>
-        <v>3.6926262771997146E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E73" s="40">
-        <v>19467</v>
-      </c>
-      <c r="F73" s="9">
-        <f t="shared" si="2"/>
-        <v>4.0296180132432784E-3</v>
-      </c>
-      <c r="G73" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="45">
-        <v>693651</v>
-      </c>
-      <c r="F74" s="9">
-        <f t="shared" si="2"/>
-        <v>0.14358394023240423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="8" t="s">
+        <v>6.3065892027268176E-3</v>
+      </c>
+      <c r="G79" s="26"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="51"/>
+      <c r="B80" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C80" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D80" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E80" s="14">
         <v>27704</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F80" s="32">
         <f t="shared" si="2"/>
         <v>5.7346554394047252E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="40">
-        <v>10679</v>
-      </c>
-      <c r="F76" s="9">
-        <f t="shared" si="2"/>
-        <v>2.2105250302267925E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="40">
-        <v>9094</v>
-      </c>
-      <c r="F77" s="9">
-        <f t="shared" si="2"/>
-        <v>1.8824341815603008E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="44">
-        <v>1435</v>
-      </c>
-      <c r="F78" s="9">
-        <f t="shared" si="2"/>
-        <v>2.9704124153717086E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="8" t="s">
+      <c r="G80" s="26"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="51"/>
+      <c r="B81" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C81" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D81" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E81" s="14">
         <v>29690</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F81" s="32">
         <f t="shared" si="2"/>
         <v>6.1457522377969349E-3</v>
       </c>
-      <c r="G79" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="8" t="s">
+      <c r="G81" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="51"/>
+      <c r="B82" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C82" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D82" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="40">
+      <c r="E82" s="14">
         <v>112948</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F82" s="32">
         <f t="shared" si="2"/>
         <v>2.3379940173616984E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="40">
-        <v>47737</v>
-      </c>
-      <c r="F81" s="9">
-        <f t="shared" si="2"/>
-        <v>9.8814339702159755E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="15"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
+      <c r="G82" s="26"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="52"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="26"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="14">
+        <v>16076</v>
+      </c>
+      <c r="F84" s="32">
+        <f>E84/$E$5</f>
+        <v>3.3276898947397619E-3</v>
+      </c>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="51"/>
+      <c r="B85" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C85" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D85" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="E83" s="40">
+      <c r="E85" s="14">
         <v>14780</v>
       </c>
-      <c r="F83" s="9">
-        <f>E83/$E$5</f>
+      <c r="F85" s="32">
+        <f>E85/$E$5</f>
         <v>3.0594212891424284E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="33"/>
-      <c r="B84" s="8" t="s">
+      <c r="G85" s="26"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="51"/>
+      <c r="B86" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C86" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D86" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E86" s="14">
         <v>35466</v>
       </c>
-      <c r="F84" s="9">
-        <f>E84/$E$5</f>
+      <c r="F86" s="32">
+        <f>E86/$E$5</f>
         <v>7.3413691096566557E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="33"/>
-      <c r="B85" s="10" t="s">
+      <c r="G86" s="26"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="51"/>
+      <c r="B87" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C87" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D87" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E87" s="14">
         <v>102920</v>
       </c>
-      <c r="F85" s="9">
-        <f>E85/$E$5</f>
+      <c r="F87" s="32">
+        <f>E87/$E$5</f>
         <v>2.1304170438331445E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="40">
-        <v>16076</v>
-      </c>
-      <c r="F86" s="9">
-        <f>E86/$E$5</f>
-        <v>3.3276898947397619E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
+      <c r="G87" s="26"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="52"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="26"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B89" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D89" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E89" s="14">
         <v>17516</v>
       </c>
-      <c r="F88" s="9">
-        <f>E88/$E$5</f>
+      <c r="F89" s="32">
+        <f>E89/$E$5</f>
         <v>3.6257661231812433E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="8" t="s">
+      <c r="G89" s="26"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="51"/>
+      <c r="B90" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D90" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E90" s="14">
         <v>11536</v>
       </c>
-      <c r="F89" s="9">
-        <f>E89/$E$5</f>
+      <c r="F90" s="32">
+        <f>E90/$E$5</f>
         <v>2.3879217856256464E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="15"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+      <c r="G90" s="26"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="52"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="26"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="40">
-        <v>27883</v>
-      </c>
-      <c r="F91" s="9">
-        <f>E91/$E$5</f>
-        <v>5.7717079705790486E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="14">
         <v>18943</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="32">
         <f>E92/$E$5</f>
         <v>3.9211513856715167E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
+      <c r="G92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="51"/>
+      <c r="B93" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="14">
+        <v>27883</v>
+      </c>
+      <c r="F93" s="32">
+        <f>E93/$E$5</f>
+        <v>5.7717079705790486E-3</v>
+      </c>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="52"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B95" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D95" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E95" s="14">
         <v>2415</v>
       </c>
-      <c r="F94" s="9">
-        <f>E94/$E$5</f>
+      <c r="F95" s="32">
+        <f>E95/$E$5</f>
         <v>4.9989867478206803E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
-      <c r="B95" s="8" t="s">
+      <c r="G95" s="26"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="50"/>
+      <c r="B96" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D96" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E96" s="14">
         <v>8035</v>
       </c>
-      <c r="F95" s="9">
-        <f>E95/$E$5</f>
+      <c r="F96" s="32">
+        <f>E96/$E$5</f>
         <v>1.6632239552272945E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="8" t="s">
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="50"/>
+      <c r="B97" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D97" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E97" s="14">
         <v>4393</v>
       </c>
-      <c r="F96" s="9">
-        <f>E96/$E$5</f>
+      <c r="F97" s="32">
+        <f>E97/$E$5</f>
         <v>9.0933949412738083E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="15"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="52"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E98" s="40">
-        <v>14986</v>
-      </c>
-      <c r="F98" s="9">
-        <f>E98/$E$5</f>
-        <v>3.1020627496000292E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="40">
+      <c r="E99" s="14">
         <v>22685</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="32">
         <f>E99/$E$5</f>
         <v>4.6957355848576444E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="8" t="s">
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="51"/>
+      <c r="B100" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="14">
+        <v>14986</v>
+      </c>
+      <c r="F100" s="32">
+        <f>E100/$E$5</f>
+        <v>3.1020627496000292E-3</v>
+      </c>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="51"/>
+      <c r="B101" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D101" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="40">
+      <c r="E101" s="14">
         <v>14381</v>
       </c>
-      <c r="F100" s="9">
-        <f>E100/$E$5</f>
+      <c r="F101" s="32">
+        <f>E101/$E$5</f>
         <v>2.9768293341784348E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="G101" s="26"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="52"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="26"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B103" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D103" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E102" s="40">
+      <c r="E103" s="14">
         <v>10643</v>
       </c>
-      <c r="F102" s="9">
-        <f>E102/$E$5</f>
+      <c r="F103" s="32">
+        <f>E103/$E$5</f>
         <v>2.2030731245157556E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="25" t="s">
+      <c r="G103" s="26"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="50"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="46"/>
-      <c r="F103" s="26">
-        <f>SUM(F7:F102)</f>
-        <v>0.91131880308318458</v>
-      </c>
+      <c r="E104" s="20"/>
+      <c r="F104" s="48">
+        <f>SUM(F7:F103)</f>
+        <v>0.91131880308318447</v>
+      </c>
+      <c r="G104" s="26"/>
     </row>
   </sheetData>
+  <sortState ref="B11:F12">
+    <sortCondition ref="B10"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
